--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1483507.333930091</v>
+        <v>1481213.738473496</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68.76973734228078</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>18.277459477625</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -835,7 +835,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>8.883841599732929</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>109.707128740127</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>92.47445699814307</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>341.541894998086</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>46.31309944282314</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>9.464075951578328</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>391.6644677464857</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>408.6659743001526</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991711</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>2.398536716038238</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>107.3178054178679</v>
+        <v>20.72279572932704</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>137.9792024346629</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.594095449514675</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428436</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>177.696569780335</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,7 +2725,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>55.52079624060384</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>91.89996056624706</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890381</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>87.21471514852939</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>123.9815576456779</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,10 +3436,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>35.88641949135139</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>252.137643323832</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892427987</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365888</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>143.2091541404089</v>
       </c>
     </row>
     <row r="44">
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1181.996585635751</v>
+        <v>842.8595545333294</v>
       </c>
       <c r="C2" t="n">
-        <v>1181.996585635751</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="D2" t="n">
-        <v>1181.996585635751</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4331,7 +4331,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4358,22 +4358,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2543.877248119726</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2290.296187383906</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1959.233300040335</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>1606.464644770221</v>
       </c>
       <c r="X2" t="n">
-        <v>1251.46096678957</v>
+        <v>1232.998886509141</v>
       </c>
       <c r="Y2" t="n">
-        <v>1251.46096678957</v>
+        <v>842.8595545333294</v>
       </c>
     </row>
     <row r="3">
@@ -4410,25 +4410,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>299.2648838844854</v>
+        <v>319.2880102945316</v>
       </c>
       <c r="L3" t="n">
-        <v>593.9684409159571</v>
+        <v>613.9915673260033</v>
       </c>
       <c r="M3" t="n">
-        <v>957.2304598751772</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1344.515588472122</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648284</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>918.7469765594642</v>
+        <v>981.8280128167644</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>812.8918298888575</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1627.47254270103</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1430.843794860891</v>
+        <v>1525.630838518814</v>
       </c>
       <c r="T4" t="n">
-        <v>1207.865314055626</v>
+        <v>1525.630838518814</v>
       </c>
       <c r="U4" t="n">
-        <v>918.7469765594642</v>
+        <v>1236.512501022651</v>
       </c>
       <c r="V4" t="n">
-        <v>918.7469765594642</v>
+        <v>981.8280128167644</v>
       </c>
       <c r="W4" t="n">
-        <v>918.7469765594642</v>
+        <v>981.8280128167644</v>
       </c>
       <c r="X4" t="n">
-        <v>918.7469765594642</v>
+        <v>981.8280128167644</v>
       </c>
       <c r="Y4" t="n">
-        <v>918.7469765594642</v>
+        <v>981.8280128167644</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4598,19 +4598,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136266</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>2285.729975937151</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>743.0391787935281</v>
+        <v>943.7005868594143</v>
       </c>
       <c r="C7" t="n">
-        <v>574.1029958656212</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D7" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040963</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1191.821308835076</v>
+        <v>1125.349051689654</v>
       </c>
       <c r="W7" t="n">
-        <v>1191.821308835076</v>
+        <v>1125.349051689654</v>
       </c>
       <c r="X7" t="n">
-        <v>963.8317579370582</v>
+        <v>1125.349051689654</v>
       </c>
       <c r="Y7" t="n">
-        <v>743.0391787935281</v>
+        <v>1125.349051689654</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1628.17820394412</v>
+        <v>2342.888901953459</v>
       </c>
       <c r="C8" t="n">
-        <v>1259.215687003709</v>
+        <v>1973.926385013047</v>
       </c>
       <c r="D8" t="n">
-        <v>900.9499883969581</v>
+        <v>1615.660686406297</v>
       </c>
       <c r="E8" t="n">
-        <v>515.1617357987138</v>
+        <v>1229.872433808053</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>818.8865290184451</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4832,22 +4832,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="Y8" t="n">
-        <v>2014.778044008242</v>
+        <v>2729.488742017581</v>
       </c>
     </row>
     <row r="9">
@@ -4875,13 +4875,13 @@
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637308</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890283</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.11872044489</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684177</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.8431516380895</v>
+        <v>870.3164745246301</v>
       </c>
       <c r="C13" t="n">
-        <v>572.9069687101826</v>
+        <v>701.3802915967232</v>
       </c>
       <c r="D13" t="n">
-        <v>572.9069687101826</v>
+        <v>551.2636521843874</v>
       </c>
       <c r="E13" t="n">
-        <v>572.9069687101826</v>
+        <v>403.3505586019943</v>
       </c>
       <c r="F13" t="n">
-        <v>426.0170212122722</v>
+        <v>256.4606111040839</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611859</v>
+        <v>1272.7575184984</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683292</v>
+        <v>1051.96493935487</v>
       </c>
     </row>
     <row r="14">
@@ -5303,13 +5303,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6605733532801</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7243904253733</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429802</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1432.091168225067</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.10161732705</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.3090381835199</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5510,10 +5510,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400739</v>
       </c>
       <c r="C19" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.721318527047</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5683,40 +5683,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.56011257082</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279805</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S19" t="n">
-        <v>2267.47159895366</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T19" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U19" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138438</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703137</v>
       </c>
     </row>
     <row r="20">
@@ -5744,43 +5744,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6218,19 +6218,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6242,34 +6242,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101285</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F28" t="n">
-        <v>149.8982754122182</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238956</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583154</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377267</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340306</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,13 +6692,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075805</v>
@@ -6707,19 +6707,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6929,58 +6929,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7026,16 +7026,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026079</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400694</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121625</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121625</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121625</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121625</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270425</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7351,31 +7351,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648817</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138393</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703091</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,61 +7397,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1652.960887244722</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1424.971336346704</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.955613488307165</v>
+        <v>21.18099370047503</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>58.20633287440091</v>
+        <v>144.8013425629418</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856703</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671011978</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>43.04708356698171</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>284.9289028870763</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.2291039219395</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>3.329716221309553</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24023,10 +24023,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>110.003342051665</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016489</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>125.5054897610412</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24965,7 +24965,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.63391537253442</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,10 +25324,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>250.2980548978928</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25406,7 +25406,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194402</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,10 +25837,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>75.37549921168588</v>
       </c>
     </row>
     <row r="44">
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>917189.0841264419</v>
+        <v>917189.084126442</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>917189.084126442</v>
+        <v>917189.0841264419</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>917189.0841264416</v>
+        <v>917189.0841264417</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>917189.0841264419</v>
+        <v>917189.0841264417</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>917189.0841264417</v>
+        <v>917189.0841264419</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>917189.0841264417</v>
+        <v>917189.084126442</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>917189.0841264419</v>
+        <v>917189.0841264417</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
         <v>504466.6248062538</v>
@@ -26326,34 +26326,34 @@
         <v>504466.6248062538</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="L2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="L2" t="n">
-        <v>504466.6248062536</v>
-      </c>
       <c r="M2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062539</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121059</v>
+        <v>203438.7416121057</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605451</v>
+        <v>49110.09270605445</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,10 +26421,10 @@
         <v>89134.17909312021</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.1790931202</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
         <v>9947.144321768897</v>
@@ -26433,7 +26433,7 @@
         <v>9947.144321768899</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768854</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
@@ -26451,7 +26451,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832468.8602578091</v>
+        <v>-832468.8602578093</v>
       </c>
       <c r="C6" t="n">
-        <v>112644.2448985576</v>
+        <v>112644.2448985578</v>
       </c>
       <c r="D6" t="n">
-        <v>316082.9865106636</v>
+        <v>316082.9865106634</v>
       </c>
       <c r="E6" t="n">
-        <v>67984.48885322215</v>
+        <v>67949.75092778678</v>
       </c>
       <c r="F6" t="n">
-        <v>393396.9506605779</v>
+        <v>393362.212735142</v>
       </c>
       <c r="G6" t="n">
-        <v>393396.9506605779</v>
+        <v>393362.2127351419</v>
       </c>
       <c r="H6" t="n">
-        <v>393396.9506605779</v>
+        <v>393362.212735142</v>
       </c>
       <c r="I6" t="n">
-        <v>393396.9506605777</v>
+        <v>393362.2127351419</v>
       </c>
       <c r="J6" t="n">
-        <v>225791.7728505952</v>
+        <v>225757.0349251595</v>
       </c>
       <c r="K6" t="n">
-        <v>344286.8579545233</v>
+        <v>344252.1200290875</v>
       </c>
       <c r="L6" t="n">
-        <v>393396.9506605776</v>
+        <v>393362.212735142</v>
       </c>
       <c r="M6" t="n">
-        <v>308341.9227250657</v>
+        <v>308307.1847996301</v>
       </c>
       <c r="N6" t="n">
-        <v>393396.9506605776</v>
+        <v>393362.2127351419</v>
       </c>
       <c r="O6" t="n">
-        <v>393396.9506605777</v>
+        <v>393362.2127351422</v>
       </c>
       <c r="P6" t="n">
-        <v>393396.9506605778</v>
+        <v>393362.212735142</v>
       </c>
     </row>
   </sheetData>
@@ -26796,7 +26796,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>313.9641043211998</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -27430,7 +27430,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>188.3807255026088</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>92.6737308198407</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>84.95533162161041</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>277.256643680326</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>44.69604365796761</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>102.3023735753892</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>242.6735673722497</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>15.21157799522575</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>2.255751353300809</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911111</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28059,10 +28059,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>217.1504125601309</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28071,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>2.168102734382652e-12</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29481,7 +29481,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>-2.053100445934254e-12</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30201,7 +30201,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -30678,7 +30678,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>2.168102734382652e-12</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,31 +31841,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704897</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32090,13 +32090,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>398.1179220955534</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>362.8934092184361</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34208,7 +34208,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,10 +34220,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34778,13 +34778,13 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>187.543109731792</v>
+        <v>207.7684899439598</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,13 +34793,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,13 +35738,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899096</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>259.5635423156792</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>224.339029438562</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998967</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,10 +37868,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
